--- a/current20240719143658急坂.xlsx
+++ b/current20240719143658急坂.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\VRSJ2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7FA83-F148-4C22-B930-DA10BF05AE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361B4232-CAA1-4C53-AC3F-BACAEB3FEFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19160" yWindow="-11160" windowWidth="19380" windowHeight="10530" xr2:uid="{0C44B60E-B163-4BFA-90A8-64D6790AFC1B}"/>
+    <workbookView xWindow="-60" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{0C44B60E-B163-4BFA-90A8-64D6790AFC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="current20240719143658" sheetId="1" r:id="rId1"/>
@@ -6189,745 +6189,745 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>0.1257188311282828</c:v>
+                  <c:v>0.11478964886356564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1120303090933458</c:v>
+                  <c:v>2.9786513971082253E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19350669458676703</c:v>
+                  <c:v>6.5383909409402648E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12572140414887334</c:v>
+                  <c:v>0.17063451718975806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78412316035583829</c:v>
+                  <c:v>0.84248534364685279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.575948372478448</c:v>
+                  <c:v>1.7103720380648837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4951073408794935</c:v>
+                  <c:v>2.3501853817719711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0974488177017752</c:v>
+                  <c:v>3.0381866394180266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6555565818868527</c:v>
+                  <c:v>3.7151088174184586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3417517268453709</c:v>
+                  <c:v>4.3605472538234187</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7691201816643591</c:v>
+                  <c:v>4.840681289653439</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3519879225805385</c:v>
+                  <c:v>5.2303100552693325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7344905055462387</c:v>
+                  <c:v>5.6870918444702765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9641070123312536</c:v>
+                  <c:v>5.8334054201751426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0612748537541963</c:v>
+                  <c:v>6.0754816687950761</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0348763919016317</c:v>
+                  <c:v>6.1583594064007912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9449771417862882</c:v>
+                  <c:v>5.9247612233449374</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4215122194551215</c:v>
+                  <c:v>5.462991203750093</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6838774061459523</c:v>
+                  <c:v>4.6770334889386822</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5859771471491189</c:v>
+                  <c:v>3.5520035466593716</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2544663310500401</c:v>
+                  <c:v>2.4027631139918499</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83447601224990053</c:v>
+                  <c:v>0.7748567236381434</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.78910093945211757</c:v>
+                  <c:v>-0.7908290833335816</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.5594171035705444</c:v>
+                  <c:v>-2.5074452445200679</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-4.3942632163648492</c:v>
+                  <c:v>-4.4440243179277461</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-6.196722978428836</c:v>
+                  <c:v>-6.1698835787077222</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.9753535827008299</c:v>
+                  <c:v>-7.9257835183992746</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.7279585860089934</c:v>
+                  <c:v>-9.5756899698006706</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-11.162596162795797</c:v>
+                  <c:v>-11.164177572483286</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-12.465856524779541</c:v>
+                  <c:v>-12.403378552436497</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-13.561874523250339</c:v>
+                  <c:v>-13.466889152168186</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-14.343098109626895</c:v>
+                  <c:v>-14.336370665882439</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-14.688581067781223</c:v>
+                  <c:v>-14.735460764472625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-14.908120794939439</c:v>
+                  <c:v>-14.966160043498917</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-14.453205067626136</c:v>
+                  <c:v>-14.453369157247796</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-13.558258644081185</c:v>
+                  <c:v>-13.552147142101864</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-11.813304302305918</c:v>
+                  <c:v>-11.83086433406012</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-9.6565605348063634</c:v>
+                  <c:v>-9.6393589348140836</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-7.0464983914773667</c:v>
+                  <c:v>-7.1404523840565339</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-4.3823728479328512</c:v>
+                  <c:v>-4.3923860785671831</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.7398660409673379</c:v>
+                  <c:v>-1.5847512777569455</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.87348579973336338</c:v>
+                  <c:v>0.79181282888585469</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9628202774811445</c:v>
+                  <c:v>2.9917599699836748</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.6936518171392327</c:v>
+                  <c:v>4.6608597156775105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.7144384589166739</c:v>
+                  <c:v>5.6794381990487057</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.0884488918928961</c:v>
+                  <c:v>6.0629166640839838</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.8867818293167637</c:v>
+                  <c:v>6.01830817806903</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.5006417565611034</c:v>
+                  <c:v>5.5153297095269966</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.6482194690415133</c:v>
+                  <c:v>4.6409045266420499</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.6305387527338064</c:v>
+                  <c:v>3.5523493083808053</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.4014408591076388</c:v>
+                  <c:v>2.4217909226692393</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.77100635245382165</c:v>
+                  <c:v>0.90247755327354184</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.7454843607263858</c:v>
+                  <c:v>-0.77787705064484913</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.5966637476358438</c:v>
+                  <c:v>-2.5612479421634715</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.410842608908772</c:v>
+                  <c:v>-4.3757201433089907</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-6.1393530924274042</c:v>
+                  <c:v>-6.1502447263115494</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-7.9934583830399779</c:v>
+                  <c:v>-8.0172093029579052</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-9.6912670514469568</c:v>
+                  <c:v>-9.5927194191972909</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-11.167243049937333</c:v>
+                  <c:v>-11.161178359520711</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-12.495835307473085</c:v>
+                  <c:v>-12.442533827179981</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-13.415054582588745</c:v>
+                  <c:v>-13.444481182102768</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-14.2059605376968</c:v>
+                  <c:v>-14.267805525625349</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-14.663358168675904</c:v>
+                  <c:v>-14.765055755043287</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-14.914912008343689</c:v>
+                  <c:v>-14.92513230994518</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-14.593965036986559</c:v>
+                  <c:v>-14.445948390529823</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-13.510674393953854</c:v>
+                  <c:v>-13.477515257937206</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-11.762622516139814</c:v>
+                  <c:v>-11.794123410907053</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-9.5649663958332578</c:v>
+                  <c:v>-9.6603151803982499</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-7.1893706244282303</c:v>
+                  <c:v>-7.1971123772805692</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-4.3310803164027325</c:v>
+                  <c:v>-4.3655592027750032</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.7087833806038173</c:v>
+                  <c:v>-1.6202415641925505</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.78287110140607252</c:v>
+                  <c:v>0.85220644520577826</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.1112044619339083</c:v>
+                  <c:v>3.1062991083151763</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.7350818067367699</c:v>
+                  <c:v>4.7103889380696966</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.8137636228108196</c:v>
+                  <c:v>5.7897057801712135</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.0482524058361049</c:v>
+                  <c:v>6.126739436015689</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.023124077562529</c:v>
+                  <c:v>5.9161743547847818</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.4909249694111804</c:v>
+                  <c:v>5.4430402252443688</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.7003747898286319</c:v>
+                  <c:v>4.6480845192183669</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.6714502530259279</c:v>
+                  <c:v>3.6741629473825923</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.3013538459308736</c:v>
+                  <c:v>2.3354294298137974</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.83546035082433157</c:v>
+                  <c:v>0.77005415758489093</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.89422615422826113</c:v>
+                  <c:v>-0.81328514269249907</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.5384435717980844</c:v>
+                  <c:v>-2.4981228861083933</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-4.4480879419397228</c:v>
+                  <c:v>-4.3800746523545415</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-6.1277499153339869</c:v>
+                  <c:v>-6.2135711515219114</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-7.9461277080523809</c:v>
+                  <c:v>-7.980491910748488</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-9.6147394197525742</c:v>
+                  <c:v>-9.5885287687917469</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-11.153411910441164</c:v>
+                  <c:v>-11.130233566838477</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-12.405643562173537</c:v>
+                  <c:v>-12.485844267698825</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-13.493880441033884</c:v>
+                  <c:v>-13.400186073161825</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-14.339496877723121</c:v>
+                  <c:v>-14.247198054103841</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-14.746895352695672</c:v>
+                  <c:v>-14.689342465891192</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-14.911264444591449</c:v>
+                  <c:v>-14.933274654377128</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-14.451804111434903</c:v>
+                  <c:v>-14.56711967086828</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-13.547233127859394</c:v>
+                  <c:v>-13.441401271026315</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-11.798790248144064</c:v>
+                  <c:v>-11.776688090385774</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-9.6661073048102359</c:v>
+                  <c:v>-9.5581745569445022</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-7.0560797493762717</c:v>
+                  <c:v>-7.1650278594728611</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-4.3257438752340116</c:v>
+                  <c:v>-4.3324853574581086</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.6735296483800941</c:v>
+                  <c:v>-1.7264061356511806</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.84625499908540436</c:v>
+                  <c:v>0.78770800513399941</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.0326504227999678</c:v>
+                  <c:v>3.0463026787520708</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.7155724849461169</c:v>
+                  <c:v>4.6840134604239143</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.6656680593245348</c:v>
+                  <c:v>5.7865298448077604</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.0882463811580347</c:v>
+                  <c:v>6.0628976055633812</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.9398076550338095</c:v>
+                  <c:v>5.939836238209681</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.4890595851975785</c:v>
+                  <c:v>5.4102452492421715</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.7763647297477219</c:v>
+                  <c:v>4.7694656913708773</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.5911054110536496</c:v>
+                  <c:v>3.6123083344308835</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.3247561047809624</c:v>
+                  <c:v>2.3123404228283784</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.8072548534078523</c:v>
+                  <c:v>0.87979439577589424</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.86278657419552562</c:v>
+                  <c:v>-0.86573772016493766</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-2.5286169994614331</c:v>
+                  <c:v>-2.6144894513923829</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-4.3528446299243333</c:v>
+                  <c:v>-4.3474579556310342</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-6.1783679978888362</c:v>
+                  <c:v>-6.281017489783868</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-7.9327576897963361</c:v>
+                  <c:v>-7.9330693996931609</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-9.5707182780197879</c:v>
+                  <c:v>-9.5637475062492019</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-11.097622575215567</c:v>
+                  <c:v>-11.186560618071333</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-12.523148918500555</c:v>
+                  <c:v>-12.488383023189204</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-13.583761164248388</c:v>
+                  <c:v>-13.432362997755467</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-14.355101528847447</c:v>
+                  <c:v>-14.286188295073927</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-14.750024608609278</c:v>
+                  <c:v>-14.796741367871814</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-14.859824872666593</c:v>
+                  <c:v>-14.932439513105606</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-14.443284802482493</c:v>
+                  <c:v>-14.622929222923613</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-13.411446259213218</c:v>
+                  <c:v>-13.522985818800686</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-11.791561798058881</c:v>
+                  <c:v>-11.815196303727637</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-9.5953357380590756</c:v>
+                  <c:v>-9.7434985727083419</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-7.068369213891164</c:v>
+                  <c:v>-7.1715203549792594</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-4.4516102064217984</c:v>
+                  <c:v>-4.4891057754333783</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.5887659137075001</c:v>
+                  <c:v>-1.6164074625407374</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.91861906433578833</c:v>
+                  <c:v>0.77361071664362302</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.1129601700943645</c:v>
+                  <c:v>3.0791620444146024</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4.6444657241446237</c:v>
+                  <c:v>4.6146496981887433</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5.6863410369824008</c:v>
+                  <c:v>5.7126781975380529</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.1476255735755281</c:v>
+                  <c:v>6.1394230963271994</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5.9534786201754404</c:v>
+                  <c:v>6.0348458262045437</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5.5663038185465537</c:v>
+                  <c:v>5.4986580762280939</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.6928536846849056</c:v>
+                  <c:v>4.6518548454924176</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.6500684220608246</c:v>
+                  <c:v>3.7347002434629375</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.3693409779580881</c:v>
+                  <c:v>2.3921565059835315</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.93486990013459825</c:v>
+                  <c:v>0.80056409275059004</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.86613619040063317</c:v>
+                  <c:v>-0.78769977288250104</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-2.5785357098112947</c:v>
+                  <c:v>-2.5698062253878713</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.3787060815447676</c:v>
+                  <c:v>-4.3482811962406878</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-6.243500997456672</c:v>
+                  <c:v>-6.2985305981090303</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-7.953340870177759</c:v>
+                  <c:v>-8.022142993340136</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-9.6835141314310889</c:v>
+                  <c:v>-9.6561988078178569</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-11.073250472140261</c:v>
+                  <c:v>-11.091070562713135</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-12.375137342184535</c:v>
+                  <c:v>-12.482235485387895</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-13.468976239692678</c:v>
+                  <c:v>-13.464659654420169</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-14.311031114675876</c:v>
+                  <c:v>-14.204713612651895</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-14.80748280577388</c:v>
+                  <c:v>-14.673090257321169</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-14.940343796164386</c:v>
+                  <c:v>-14.849931558078312</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-14.634456068757398</c:v>
+                  <c:v>-14.60282346477868</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-13.582341963244506</c:v>
+                  <c:v>-13.545536144118792</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-11.865947779446362</c:v>
+                  <c:v>-11.748696929394045</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-9.6640672675312835</c:v>
+                  <c:v>-9.7447602693590198</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-7.0798347357771929</c:v>
+                  <c:v>-7.1951747938816064</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-4.4868258594840897</c:v>
+                  <c:v>-4.3313958965759918</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-1.627680425911634</c:v>
+                  <c:v>-1.5914394321234442</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.78237346482242842</c:v>
+                  <c:v>0.79913048043169632</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.9685360674402732</c:v>
+                  <c:v>3.1109000080357005</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>4.7897275207532957</c:v>
+                  <c:v>4.6991654108489902</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>5.7387682043985642</c:v>
+                  <c:v>5.6520953890595029</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>6.0444031870287223</c:v>
+                  <c:v>6.1201301458042545</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5.9600969650347775</c:v>
+                  <c:v>6.0374257589487259</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5.4553212100958879</c:v>
+                  <c:v>5.4724304505167014</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.6735075808024735</c:v>
+                  <c:v>4.6933316629701611</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.6711769008394115</c:v>
+                  <c:v>3.725748924576191</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.3001369797947619</c:v>
+                  <c:v>2.4373021110497959</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.7615905089514482</c:v>
+                  <c:v>0.783728521204337</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.76077550842540065</c:v>
+                  <c:v>-0.87050515320789468</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.6264934490201606</c:v>
+                  <c:v>-2.6164344293854223</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-4.3319489782285929</c:v>
+                  <c:v>-4.3312721769867775</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-6.2180071614433308</c:v>
+                  <c:v>-6.1292995751573702</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-7.9529919745838047</c:v>
+                  <c:v>-8.0517833682557818</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-9.748619349477524</c:v>
+                  <c:v>-9.600986091197008</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-11.220244928005375</c:v>
+                  <c:v>-11.152510255325504</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-12.419051870312304</c:v>
+                  <c:v>-12.511922154751115</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-13.507616468939675</c:v>
+                  <c:v>-13.436541654483177</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-14.362737553695084</c:v>
+                  <c:v>-14.319354614300069</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-14.788054528464514</c:v>
+                  <c:v>-14.659606822704413</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-14.837025859186545</c:v>
+                  <c:v>-14.907494778002627</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-14.480703790653214</c:v>
+                  <c:v>-14.512658935772002</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-13.433140129683704</c:v>
+                  <c:v>-13.50080092771652</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-11.725608582096591</c:v>
+                  <c:v>-11.854641622013544</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-9.5530362066610195</c:v>
+                  <c:v>-9.6146787990046985</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-7.028222608374036</c:v>
+                  <c:v>-7.0684884130711154</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-4.3786367760448073</c:v>
+                  <c:v>-4.3057372475328775</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.6577263145704406</c:v>
+                  <c:v>-1.6448271908644487</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.83688187519589452</c:v>
+                  <c:v>0.89943128701814556</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.112765881725188</c:v>
+                  <c:v>2.9533457443521431</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4.651900835402297</c:v>
+                  <c:v>4.5988032923382107</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5.8015869037415548</c:v>
+                  <c:v>5.7569276159104357</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6.123087408326735</c:v>
+                  <c:v>6.0881766050719248</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.9755993427910949</c:v>
+                  <c:v>5.9820197275427791</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.3744213627997013</c:v>
+                  <c:v>5.5116466749619626</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4.7521358206327422</c:v>
+                  <c:v>4.6720030538814932</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.6651244429291565</c:v>
+                  <c:v>3.6520588217010781</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.3943995926481283</c:v>
+                  <c:v>2.2642721423820804</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.94399509975592821</c:v>
+                  <c:v>0.93226043769667155</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.82768385098112163</c:v>
+                  <c:v>-0.88483252665220369</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-2.6411125075999484</c:v>
+                  <c:v>-2.5571462957339781</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-4.4012707507058142</c:v>
+                  <c:v>-4.3425591486638497</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-6.3179176431345292</c:v>
+                  <c:v>-6.2892679901037116</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-7.9459980069547624</c:v>
+                  <c:v>-7.983030666446564</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-9.6760653703519051</c:v>
+                  <c:v>-9.7462008947596122</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-11.173003151967929</c:v>
+                  <c:v>-11.235744943077885</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-12.542905094506974</c:v>
+                  <c:v>-12.402015359542421</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-13.441975719638759</c:v>
+                  <c:v>-13.572992834477297</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-14.175023656438231</c:v>
+                  <c:v>-14.310195264049709</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-14.64053712758864</c:v>
+                  <c:v>-14.709464100822206</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-14.813568437075933</c:v>
+                  <c:v>-14.933096297442978</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-14.476783233756734</c:v>
+                  <c:v>-14.469591500187208</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-13.46014498863989</c:v>
+                  <c:v>-13.445503568781959</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-11.860104386290512</c:v>
+                  <c:v>-11.767392536524897</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-9.7248770734649117</c:v>
+                  <c:v>-9.6929169492461611</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-7.1455820287513445</c:v>
+                  <c:v>-7.1644404228381529</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-4.4243511421828616</c:v>
+                  <c:v>-4.4979896994903097</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-1.6093951795063517</c:v>
+                  <c:v>-1.6652732625511113</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.93342184446762344</c:v>
+                  <c:v>0.75484359699747505</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.9801446914600396</c:v>
+                  <c:v>2.9468275484050941</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>4.6472372052920461</c:v>
+                  <c:v>4.6543246140581545</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>5.7200105003802788</c:v>
+                  <c:v>5.8327308128265303</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6.080648201136734</c:v>
+                  <c:v>6.1273632055535803</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>4.0178109889011077E-2</c:v>
+                  <c:v>0.18977598826450104</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.18938365806552462</c:v>
+                  <c:v>0.11492853327128578</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.18270114188809686</c:v>
+                  <c:v>0.18997511468589282</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.18987614934641106</c:v>
+                  <c:v>0.15113999097283118</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3.9832792718999026E-2</c:v>
+                  <c:v>0.1564295735988098</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>7.6871319784471356E-2</c:v>
+                  <c:v>6.1802614194921127E-2</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.12393021603933987</c:v>
+                  <c:v>0.12522326180233681</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.1021407136140483E-2</c:v>
+                  <c:v>2.138473122910365E-2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.19964112158418146</c:v>
+                  <c:v>0.13645229799710909</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.14444543131322823</c:v>
+                  <c:v>7.1568709087363E-2</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>4.3036582803646889E-2</c:v>
+                  <c:v>0.18104202615097642</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.8238869464662149E-2</c:v>
+                  <c:v>7.3683319586701601E-2</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.19199542784957974</c:v>
+                  <c:v>0.1473246117991891</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.17172850997576602</c:v>
+                  <c:v>2.795632674330624E-2</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>5.3315706220509011E-2</c:v>
+                  <c:v>0.16725286820790225</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.13914431817895997</c:v>
+                  <c:v>0.18439063490739116</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.0173904607054774E-2</c:v>
+                  <c:v>0.12036885009876136</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6.4927507728757869E-2</c:v>
+                  <c:v>0.11962579556394869</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.7773743022165443E-2</c:v>
+                  <c:v>0.1508652094512167</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>9.3472269212740763E-3</c:v>
+                  <c:v>3.9201529390360618E-2</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.13476196702427232</c:v>
+                  <c:v>0.17560865785511814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18570,16 +18570,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304763</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>225425</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120613</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>646763</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>213725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462613</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18926,8 +18926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534D17CD-5564-40EB-AD0E-4F0503BCB996}">
   <dimension ref="A1:V250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -19067,11 +19067,11 @@
       </c>
       <c r="U2">
         <f ca="1">0.2*RAND()</f>
-        <v>0.1257188311282828</v>
+        <v>0.11478964886356564</v>
       </c>
       <c r="V2">
         <f ca="1">T2+U2</f>
-        <v>0.1257188311282828</v>
+        <v>0.11478964886356564</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -19137,11 +19137,11 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" ca="1" si="0">0.2*RAND()</f>
-        <v>0.1120303090933458</v>
+        <v>2.9786513971082253E-2</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" ca="1" si="1">T3+U3</f>
-        <v>0.1120303090933458</v>
+        <v>2.9786513971082253E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19350669458676703</v>
+        <v>6.5383909409402648E-3</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19350669458676703</v>
+        <v>6.5383909409402648E-3</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -19277,11 +19277,11 @@
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12572140414887334</v>
+        <v>0.17063451718975806</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12572140414887334</v>
+        <v>0.17063451718975806</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -19348,11 +19348,11 @@
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.660070355285822E-4</v>
+        <v>5.9328190326543087E-2</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78412316035583829</v>
+        <v>0.84248534364685279</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -19419,11 +19419,11 @@
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3034101863323553E-2</v>
+        <v>0.15745776744975915</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.575948372478448</v>
+        <v>1.7103720380648837</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -19490,11 +19490,11 @@
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19900674668895546</v>
+        <v>5.4084787581432807E-2</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4951073408794935</v>
+        <v>2.3501853817719711</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -19561,11 +19561,11 @@
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7448817701776255E-2</v>
+        <v>3.8186639418027649E-2</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0974488177017752</v>
+        <v>3.0381866394180266</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -19632,11 +19632,11 @@
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9880078345290609E-3</v>
+        <v>6.2540243366135104E-2</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6555565818868527</v>
+        <v>3.7151088174184586</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -19703,11 +19703,11 @@
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9111039726086578E-2</v>
+        <v>0.11790656670413424</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3417517268453709</v>
+        <v>4.3605472538234187</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -19774,11 +19774,11 @@
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0001399169489238E-3</v>
+        <v>8.0561247906028505E-2</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7691201816643591</v>
+        <v>4.840681289653439</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -19845,11 +19845,11 @@
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15583549987390674</v>
+        <v>3.4157632562700546E-2</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3519879225805385</v>
+        <v>5.2303100552693325</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -19916,11 +19916,11 @@
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19121331047851986</v>
+        <v>0.143814649402557</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7344905055462387</v>
+        <v>5.6870918444702765</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -19987,11 +19987,11 @@
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16855205459684411</v>
+        <v>3.7850462440733403E-2</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9641070123312536</v>
+        <v>5.8334054201751426</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -20058,11 +20058,11 @@
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11260568551133383</v>
+        <v>0.12681250055221391</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0612748537541963</v>
+        <v>6.0754816687950761</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -20129,11 +20129,11 @@
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4876391901631658E-2</v>
+        <v>0.15835940640079157</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0348763919016317</v>
+        <v>6.1583594064007912</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -20200,11 +20200,11 @@
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1044957351581042</v>
+        <v>8.4279816716752887E-2</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9449771417862882</v>
+        <v>5.9247612233449374</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -20271,11 +20271,11 @@
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4739701203084093E-2</v>
+        <v>9.6218685498054735E-2</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4215122194551215</v>
+        <v>5.462991203750093</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -20342,11 +20342,11 @@
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0610666409346327E-2</v>
+        <v>8.3766749202075996E-2</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6838774061459523</v>
+        <v>4.6770334889386822</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -20413,11 +20413,11 @@
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2510494399852217E-2</v>
+        <v>8.5368939101049257E-3</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5859771471491189</v>
+        <v>3.5520035466593716</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -20484,11 +20484,11 @@
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1964293413768077E-3</v>
+        <v>0.15349321228318658</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2544663310500401</v>
+        <v>2.4027631139918499</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -20555,11 +20555,11 @@
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4476012249903226E-2</v>
+        <v>2.4856723638146061E-2</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83447601224990053</v>
+        <v>0.7748567236381434</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -20626,11 +20626,11 @@
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11968755562836425</v>
+        <v>0.11795941174690031</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.78910093945211757</v>
+        <v>-0.7908290833335816</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -20697,11 +20697,11 @@
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11727703092669327</v>
+        <v>0.16924888997717003</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5594171035705444</v>
+        <v>-2.5074452445200679</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -20768,11 +20768,11 @@
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.105736783635151</v>
+        <v>5.5975682072253612E-2</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3942632163648492</v>
+        <v>-4.4440243179277461</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1265828870739317</v>
+        <v>0.15342228679504588</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.196722978428836</v>
+        <v>-6.1698835787077222</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -20910,11 +20910,11 @@
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11585792221869617</v>
+        <v>0.1654279865202517</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9753535827008299</v>
+        <v>-7.9257835183992746</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -20981,11 +20981,11 @@
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2041413991014492E-2</v>
+        <v>0.17431003019933619</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7279585860089934</v>
+        <v>-9.5756899698006706</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -21052,11 +21052,11 @@
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6673738912868364E-2</v>
+        <v>8.5092329225378849E-2</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.162596162795797</v>
+        <v>-11.164177572483286</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -21123,11 +21123,11 @@
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7610127969725981E-2</v>
+        <v>0.14008810031276947</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.465856524779541</v>
+        <v>-12.403378552436497</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -21194,11 +21194,11 @@
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="0"/>
-        <v>3.139221648626727E-2</v>
+        <v>0.12637758756842013</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.561874523250339</v>
+        <v>-13.466889152168186</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
@@ -21265,11 +21265,11 @@
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3674408625143185E-2</v>
+        <v>3.0401852369598515E-2</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.343098109626895</v>
+        <v>-14.336370665882439</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
@@ -21336,11 +21336,11 @@
       </c>
       <c r="U34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15190033884696297</v>
+        <v>0.10502064215556034</v>
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.688581067781223</v>
+        <v>-14.735460764472625</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
@@ -21407,11 +21407,11 @@
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1879205060560798E-2</v>
+        <v>3.3839956501084067E-2</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.908120794939439</v>
+        <v>-14.966160043498917</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
@@ -21478,11 +21478,11 @@
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18901610840908578</v>
+        <v>0.18885201878742619</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.453205067626136</v>
+        <v>-14.453369157247796</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
@@ -21549,11 +21549,11 @@
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5008095655425085E-2</v>
+        <v>4.1119597634745868E-2</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.558258644081185</v>
+        <v>-13.552147142101864</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
@@ -21620,11 +21620,11 @@
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11131690015283519</v>
+        <v>9.3756868398632606E-2</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.813304302305918</v>
+        <v>-11.83086433406012</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
@@ -21691,11 +21691,11 @@
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3439465193639715E-2</v>
+        <v>0.1106410651859201</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6565605348063634</v>
+        <v>-9.6393589348140836</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
@@ -21762,11 +21762,11 @@
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17110158209910281</v>
+        <v>7.7147589519935569E-2</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0464983914773667</v>
+        <v>-7.1404523840565339</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
@@ -21833,11 +21833,11 @@
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11762715206716166</v>
+        <v>0.10761392143282911</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3823728479328512</v>
+        <v>-4.3923860785671831</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
@@ -21904,11 +21904,11 @@
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2533985456205549E-2</v>
+        <v>0.19764874866659787</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7398660409673379</v>
+        <v>-1.5847512777569455</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
@@ -21975,11 +21975,11 @@
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12348579973336962</v>
+        <v>4.1812828885860957E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87348579973336338</v>
+        <v>0.79181282888585469</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
@@ -22046,11 +22046,11 @@
       </c>
       <c r="U44">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8199075022409407E-2</v>
+        <v>6.7138767524939635E-2</v>
       </c>
       <c r="V44">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9628202774811445</v>
+        <v>2.9917599699836748</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
@@ -22117,11 +22117,11 @@
       </c>
       <c r="U45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10038507740262879</v>
+        <v>6.7592975940905881E-2</v>
       </c>
       <c r="V45">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6936518171392327</v>
+        <v>4.6608597156775105</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
@@ -22188,11 +22188,11 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2217282881461772E-2</v>
+        <v>3.7217023013493548E-2</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7144384589166739</v>
+        <v>5.6794381990487057</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
@@ -22259,11 +22259,11 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8448891892896425E-2</v>
+        <v>6.2916664083983692E-2</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0884488918928961</v>
+        <v>6.0629166640839838</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
@@ -22329,11 +22329,11 @@
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="0"/>
-        <v>4.630042268857755E-2</v>
+        <v>0.17782677144084419</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8867818293167637</v>
+        <v>6.01830817806903</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
@@ -22399,11 +22399,11 @@
       </c>
       <c r="U49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13386923830906591</v>
+        <v>0.14855719127495901</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5006417565611034</v>
+        <v>5.5153297095269966</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
@@ -22469,11 +22469,11 @@
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4952729304907112E-2</v>
+        <v>4.7637786905443937E-2</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6482194690415133</v>
+        <v>4.6409045266420499</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
@@ -22539,11 +22539,11 @@
       </c>
       <c r="U51">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7072099984536341E-2</v>
+        <v>8.8826556315350306E-3</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6305387527338064</v>
+        <v>3.5523493083808053</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
@@ -22609,11 +22609,11 @@
       </c>
       <c r="U52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15217095739897557</v>
+        <v>0.17252102096057617</v>
       </c>
       <c r="V52">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4014408591076388</v>
+        <v>2.4217909226692393</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
@@ -22679,11 +22679,11 @@
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1006352453820789E-2</v>
+        <v>0.15247755327354093</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77100635245382165</v>
+        <v>0.90247755327354184</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
@@ -22749,11 +22749,11 @@
       </c>
       <c r="U54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16330413435409166</v>
+        <v>0.13091144443562835</v>
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.7454843607263858</v>
+        <v>-0.77787705064484913</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
@@ -22819,11 +22819,11 @@
       </c>
       <c r="U55">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0030386861388733E-2</v>
+        <v>0.11544619233376069</v>
       </c>
       <c r="V55">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5966637476358438</v>
+        <v>-2.5612479421634715</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
@@ -22889,11 +22889,11 @@
       </c>
       <c r="U56">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9157391091231428E-2</v>
+        <v>0.1242798566910126</v>
       </c>
       <c r="V56">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.410842608908772</v>
+        <v>-4.3757201433089907</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
@@ -22959,11 +22959,11 @@
       </c>
       <c r="U57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18395277307536201</v>
+        <v>0.17306113919121638</v>
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.1393530924274042</v>
+        <v>-6.1502447263115494</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
@@ -23029,11 +23029,11 @@
       </c>
       <c r="U58">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7753121879540758E-2</v>
+        <v>7.4002201961613931E-2</v>
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9934583830399779</v>
+        <v>-8.0172093029579052</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
@@ -23099,11 +23099,11 @@
       </c>
       <c r="U59">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8732948553047094E-2</v>
+        <v>0.15728058080271273</v>
       </c>
       <c r="V59">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6912670514469568</v>
+        <v>-9.5927194191972909</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
@@ -23169,11 +23169,11 @@
       </c>
       <c r="U60">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2026851771332343E-2</v>
+        <v>8.8091542187953703E-2</v>
       </c>
       <c r="V60">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.167243049937333</v>
+        <v>-11.161178359520711</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="U61">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7631345276189577E-2</v>
+        <v>0.10093282556929384</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.495835307473085</v>
+        <v>-12.442533827179981</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
@@ -23309,11 +23309,11 @@
       </c>
       <c r="U62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17821215714786134</v>
+        <v>0.14878555763383741</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.415054582588745</v>
+        <v>-13.444481182102768</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
@@ -23379,11 +23379,11 @@
       </c>
       <c r="U63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16081198055523729</v>
+        <v>9.8966992626688829E-2</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.2059605376968</v>
+        <v>-14.267805525625349</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
@@ -23449,11 +23449,11 @@
       </c>
       <c r="U64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17712323795228119</v>
+        <v>7.5425651584899209E-2</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.663358168675904</v>
+        <v>-14.765055755043287</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
@@ -23519,11 +23519,11 @@
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5087991656309717E-2</v>
+        <v>7.4867690054819566E-2</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.914912008343689</v>
+        <v>-14.92513230994518</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
@@ -23589,11 +23589,11 @@
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8256139048655715E-2</v>
+        <v>0.19627278550539121</v>
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.593965036986559</v>
+        <v>-14.445948390529823</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
@@ -23659,11 +23659,11 @@
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U130" ca="1" si="5">0.2*RAND()</f>
-        <v>8.259234578275583E-2</v>
+        <v>0.11575148179940389</v>
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V130" ca="1" si="6">T67+U67</f>
-        <v>-13.510674393953854</v>
+        <v>-13.477515257937206</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
@@ -23729,11 +23729,11 @@
       </c>
       <c r="U68">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16199868631893899</v>
+        <v>0.13049779155169913</v>
       </c>
       <c r="V68">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.762622516139814</v>
+        <v>-11.794123410907053</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
@@ -23799,11 +23799,11 @@
       </c>
       <c r="U69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18503360416674547</v>
+        <v>8.9684819601754451E-2</v>
       </c>
       <c r="V69">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.5649663958332578</v>
+        <v>-9.6603151803982499</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
@@ -23869,11 +23869,11 @@
       </c>
       <c r="U70">
         <f t="shared" ca="1" si="5"/>
-        <v>2.822934914823896E-2</v>
+        <v>2.0487596295900069E-2</v>
       </c>
       <c r="V70">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.1893706244282303</v>
+        <v>-7.1971123772805692</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
@@ -23939,11 +23939,11 @@
       </c>
       <c r="U71">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16891968359726747</v>
+        <v>0.13444079722499697</v>
       </c>
       <c r="V71">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.3310803164027325</v>
+        <v>-4.3655592027750032</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
@@ -24009,11 +24009,11 @@
       </c>
       <c r="U72">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3616645819726031E-2</v>
+        <v>0.16215846223099289</v>
       </c>
       <c r="V72">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.7087833806038173</v>
+        <v>-1.6202415641925505</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
@@ -24079,11 +24079,11 @@
       </c>
       <c r="U73">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2871101406078761E-2</v>
+        <v>0.10220644520578442</v>
       </c>
       <c r="V73">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78287110140607252</v>
+        <v>0.85220644520577826</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
@@ -24149,11 +24149,11 @@
       </c>
       <c r="U74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18658325947516682</v>
+        <v>0.18167790585643506</v>
       </c>
       <c r="V74">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1112044619339083</v>
+        <v>3.1062991083151763</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
@@ -24219,11 +24219,11 @@
       </c>
       <c r="U75">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14181506700017318</v>
+        <v>0.11712219833309988</v>
       </c>
       <c r="V75">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7350818067367699</v>
+        <v>4.7103889380696966</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
@@ -24289,11 +24289,11 @@
       </c>
       <c r="U76">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17154244677560332</v>
+        <v>0.1474846041359977</v>
       </c>
       <c r="V76">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8137636228108196</v>
+        <v>5.7897057801712135</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
@@ -24359,11 +24359,11 @@
       </c>
       <c r="U77">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8252405836104531E-2</v>
+        <v>0.12673943601568941</v>
       </c>
       <c r="V77">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0482524058361049</v>
+        <v>6.126739436015689</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
@@ -24429,11 +24429,11 @@
       </c>
       <c r="U78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18264267093434283</v>
+        <v>7.5692948156596024E-2</v>
       </c>
       <c r="V78">
         <f t="shared" ca="1" si="6"/>
-        <v>6.023124077562529</v>
+        <v>5.9161743547847818</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
@@ -24499,11 +24499,11 @@
       </c>
       <c r="U79">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12415245115914215</v>
+        <v>7.6267706992330903E-2</v>
       </c>
       <c r="V79">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4909249694111804</v>
+        <v>5.4430402252443688</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
@@ -24569,11 +24569,11 @@
       </c>
       <c r="U80">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10710805009202568</v>
+        <v>5.4817779481760857E-2</v>
       </c>
       <c r="V80">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7003747898286319</v>
+        <v>4.6480845192183669</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
@@ -24639,11 +24639,11 @@
       </c>
       <c r="U81">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12798360027665759</v>
+        <v>0.13069629463332211</v>
       </c>
       <c r="V81">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6714502530259279</v>
+        <v>3.6741629473825923</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
@@ -24709,11 +24709,11 @@
       </c>
       <c r="U82">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2083944222210389E-2</v>
+        <v>8.6159528105134081E-2</v>
       </c>
       <c r="V82">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3013538459308736</v>
+        <v>2.3354294298137974</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
@@ -24779,11 +24779,11 @@
       </c>
       <c r="U83">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5460350824330678E-2</v>
+        <v>2.0054157584890066E-2</v>
       </c>
       <c r="V83">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83546035082433157</v>
+        <v>0.77005415758489093</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
@@ -24849,11 +24849,11 @@
       </c>
       <c r="U84">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4562340852216284E-2</v>
+        <v>9.5503352387978344E-2</v>
       </c>
       <c r="V84">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.89422615422826113</v>
+        <v>-0.81328514269249907</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
@@ -24919,11 +24919,11 @@
       </c>
       <c r="U85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13825056269914812</v>
+        <v>0.17857124838883931</v>
       </c>
       <c r="V85">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.5384435717980844</v>
+        <v>-2.4981228861083933</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
@@ -24989,11 +24989,11 @@
       </c>
       <c r="U86">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1912058060280347E-2</v>
+        <v>0.1199253476454618</v>
       </c>
       <c r="V86">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.4480879419397228</v>
+        <v>-4.3800746523545415</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
@@ -25059,11 +25059,11 @@
       </c>
       <c r="U87">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19555595016877914</v>
+        <v>0.10973471398085421</v>
       </c>
       <c r="V87">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.1277499153339869</v>
+        <v>-6.2135711515219114</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
@@ -25129,11 +25129,11 @@
       </c>
       <c r="U88">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14508379686713807</v>
+        <v>0.11071959417103126</v>
       </c>
       <c r="V88">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.9461277080523809</v>
+        <v>-7.980491910748488</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
@@ -25199,11 +25199,11 @@
       </c>
       <c r="U89">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13526058024742851</v>
+        <v>0.16147123120825724</v>
       </c>
       <c r="V89">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.6147394197525742</v>
+        <v>-9.5885287687917469</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
@@ -25269,11 +25269,11 @@
       </c>
       <c r="U90">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5857991267500525E-2</v>
+        <v>0.11903633487018833</v>
       </c>
       <c r="V90">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.153411910441164</v>
+        <v>-11.130233566838477</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
@@ -25339,11 +25339,11 @@
       </c>
       <c r="U91">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13782309057573677</v>
+        <v>5.7622385050448394E-2</v>
       </c>
       <c r="V91">
         <f t="shared" ca="1" si="6"/>
-        <v>-12.405643562173537</v>
+        <v>-12.485844267698825</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
@@ -25409,11 +25409,11 @@
       </c>
       <c r="U92">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9386298702722697E-2</v>
+        <v>0.19308066657478212</v>
       </c>
       <c r="V92">
         <f t="shared" ca="1" si="6"/>
-        <v>-13.493880441033884</v>
+        <v>-13.400186073161825</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
@@ -25479,11 +25479,11 @@
       </c>
       <c r="U93">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7275640528915845E-2</v>
+        <v>0.11957446414819679</v>
       </c>
       <c r="V93">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.339496877723121</v>
+        <v>-14.247198054103841</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
@@ -25549,11 +25549,11 @@
       </c>
       <c r="U94">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3586053932513014E-2</v>
+        <v>0.15113894073699319</v>
       </c>
       <c r="V94">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.746895352695672</v>
+        <v>-14.689342465891192</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
@@ -25619,11 +25619,11 @@
       </c>
       <c r="U95">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8735555408551478E-2</v>
+        <v>6.6725345622872093E-2</v>
       </c>
       <c r="V95">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.911264444591449</v>
+        <v>-14.933274654377128</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
@@ -25689,11 +25689,11 @@
       </c>
       <c r="U96">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19041706460031116</v>
+        <v>7.5101505166933258E-2</v>
       </c>
       <c r="V96">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.451804111434903</v>
+        <v>-14.56711967086828</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
@@ -25759,11 +25759,11 @@
       </c>
       <c r="U97">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6033611877214269E-2</v>
+        <v>0.15186546871029372</v>
       </c>
       <c r="V97">
         <f t="shared" ca="1" si="6"/>
-        <v>-13.547233127859394</v>
+        <v>-13.441401271026315</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
@@ -25829,11 +25829,11 @@
       </c>
       <c r="U98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12583095431468877</v>
+        <v>0.14793311207297877</v>
       </c>
       <c r="V98">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.798790248144064</v>
+        <v>-11.776688090385774</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
@@ -25899,11 +25899,11 @@
       </c>
       <c r="U99">
         <f t="shared" ca="1" si="5"/>
-        <v>8.389269518976801E-2</v>
+        <v>0.19182544305550089</v>
       </c>
       <c r="V99">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.6661073048102359</v>
+        <v>-9.5581745569445022</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
@@ -25969,11 +25969,11 @@
       </c>
       <c r="U100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16152022420019729</v>
+        <v>5.2572114103607716E-2</v>
       </c>
       <c r="V100">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.0560797493762717</v>
+        <v>-7.1650278594728611</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
@@ -26039,11 +26039,11 @@
       </c>
       <c r="U101">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17425612476598823</v>
+        <v>0.16751464254189183</v>
       </c>
       <c r="V101">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.3257438752340116</v>
+        <v>-4.3324853574581086</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
@@ -26109,11 +26109,11 @@
       </c>
       <c r="U102">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10887037804344923</v>
+        <v>5.599389077236272E-2</v>
       </c>
       <c r="V102">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.6735296483800941</v>
+        <v>-1.7264061356511806</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
@@ -26179,11 +26179,11 @@
       </c>
       <c r="U103">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6254999085410575E-2</v>
+        <v>3.7708005134005677E-2</v>
       </c>
       <c r="V103">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84625499908540436</v>
+        <v>0.78770800513399941</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
@@ -26249,11 +26249,11 @@
       </c>
       <c r="U104">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10802922034122633</v>
+        <v>0.12168147629332922</v>
       </c>
       <c r="V104">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0326504227999678</v>
+        <v>3.0463026787520708</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
@@ -26319,11 +26319,11 @@
       </c>
       <c r="U105">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12230574520952009</v>
+        <v>9.0746720687316734E-2</v>
       </c>
       <c r="V105">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7155724849461169</v>
+        <v>4.6840134604239143</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
@@ -26389,11 +26389,11 @@
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3446883289318834E-2</v>
+        <v>0.14430866877254447</v>
       </c>
       <c r="V106">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6656680593245348</v>
+        <v>5.7865298448077604</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
@@ -26459,11 +26459,11 @@
       </c>
       <c r="U107">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8246381158034681E-2</v>
+        <v>6.2897605563381406E-2</v>
       </c>
       <c r="V107">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0882463811580347</v>
+        <v>6.0628976055633812</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
@@ -26529,11 +26529,11 @@
       </c>
       <c r="U108">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9326248405623679E-2</v>
+        <v>9.9354831581495384E-2</v>
       </c>
       <c r="V108">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9398076550338095</v>
+        <v>5.939836238209681</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
@@ -26599,11 +26599,11 @@
       </c>
       <c r="U109">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12228706694554077</v>
+        <v>4.3472730990133338E-2</v>
       </c>
       <c r="V109">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4890595851975785</v>
+        <v>5.4102452492421715</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
@@ -26669,11 +26669,11 @@
       </c>
       <c r="U110">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18309799001111621</v>
+        <v>0.17619895163427091</v>
       </c>
       <c r="V110">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7763647297477219</v>
+        <v>4.7694656913708773</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
@@ -26739,11 +26739,11 @@
       </c>
       <c r="U111">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7638758304379275E-2</v>
+        <v>6.8841681681613379E-2</v>
       </c>
       <c r="V111">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5911054110536496</v>
+        <v>3.6123083344308835</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
@@ -26809,11 +26809,11 @@
       </c>
       <c r="U112">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5486203072299168E-2</v>
+        <v>6.3070521119715159E-2</v>
       </c>
       <c r="V112">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3247561047809624</v>
+        <v>2.3123404228283784</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.45">
@@ -26879,11 +26879,11 @@
       </c>
       <c r="U113">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7254853407851462E-2</v>
+        <v>0.1297943957758933</v>
       </c>
       <c r="V113">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8072548534078523</v>
+        <v>0.87979439577589424</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.45">
@@ -26949,11 +26949,11 @@
       </c>
       <c r="U114">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6001920884951836E-2</v>
+        <v>4.3050774915539818E-2</v>
       </c>
       <c r="V114">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.86278657419552562</v>
+        <v>-0.86573772016493766</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.45">
@@ -27019,11 +27019,11 @@
       </c>
       <c r="U115">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14807713503579939</v>
+        <v>6.2204683104849612E-2</v>
       </c>
       <c r="V115">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.5286169994614331</v>
+        <v>-2.6144894513923829</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.45">
@@ -27089,11 +27089,11 @@
       </c>
       <c r="U116">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14715537007567017</v>
+        <v>0.15254204436896926</v>
       </c>
       <c r="V116">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.3528446299243333</v>
+        <v>-4.3474579556310342</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.45">
@@ -27159,11 +27159,11 @@
       </c>
       <c r="U117">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14493786761392988</v>
+        <v>4.2288375718898125E-2</v>
       </c>
       <c r="V117">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.1783679978888362</v>
+        <v>-6.281017489783868</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.45">
@@ -27229,11 +27229,11 @@
       </c>
       <c r="U118">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15845381512318255</v>
+        <v>0.15814210522635785</v>
       </c>
       <c r="V118">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.9327576897963361</v>
+        <v>-7.9330693996931609</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.45">
@@ -27299,11 +27299,11 @@
       </c>
       <c r="U119">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17928172198021575</v>
+        <v>0.18625249375080122</v>
       </c>
       <c r="V119">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.5707182780197879</v>
+        <v>-9.5637475062492019</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.45">
@@ -27369,11 +27369,11 @@
       </c>
       <c r="U120">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15164732649309831</v>
+        <v>6.2709283637331789E-2</v>
       </c>
       <c r="V120">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.097622575215567</v>
+        <v>-11.186560618071333</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.45">
@@ -27439,11 +27439,11 @@
       </c>
       <c r="U121">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0317734248719455E-2</v>
+        <v>5.5083629560069826E-2</v>
       </c>
       <c r="V121">
         <f t="shared" ca="1" si="6"/>
-        <v>-12.523148918500555</v>
+        <v>-12.488383023189204</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.45">
@@ -27509,11 +27509,11 @@
       </c>
       <c r="U122">
         <f t="shared" ca="1" si="5"/>
-        <v>9.50557548821831E-3</v>
+        <v>0.16090374198113877</v>
       </c>
       <c r="V122">
         <f t="shared" ca="1" si="6"/>
-        <v>-13.583761164248388</v>
+        <v>-13.432362997755467</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.45">
@@ -27579,11 +27579,11 @@
       </c>
       <c r="U123">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1670989404590127E-2</v>
+        <v>8.0584223178110523E-2</v>
       </c>
       <c r="V123">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.355101528847447</v>
+        <v>-14.286188295073927</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.45">
@@ -27649,11 +27649,11 @@
       </c>
       <c r="U124">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0456798018907436E-2</v>
+        <v>4.3740038756372182E-2</v>
       </c>
       <c r="V124">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.750024608609278</v>
+        <v>-14.796741367871814</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.45">
@@ -27719,11 +27719,11 @@
       </c>
       <c r="U125">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14017512733340681</v>
+        <v>6.7560486894393576E-2</v>
       </c>
       <c r="V125">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.859824872666593</v>
+        <v>-14.932439513105606</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.45">
@@ -27789,11 +27789,11 @@
       </c>
       <c r="U126">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1989363735527212</v>
+        <v>1.9291953111601725E-2</v>
       </c>
       <c r="V126">
         <f t="shared" ca="1" si="6"/>
-        <v>-14.443284802482493</v>
+        <v>-14.622929222923613</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.45">
@@ -27859,11 +27859,11 @@
       </c>
       <c r="U127">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18182048052339128</v>
+        <v>7.0280920935923114E-2</v>
       </c>
       <c r="V127">
         <f t="shared" ca="1" si="6"/>
-        <v>-13.411446259213218</v>
+        <v>-13.522985818800686</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.45">
@@ -27929,11 +27929,11 @@
       </c>
       <c r="U128">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13305940439987149</v>
+        <v>0.10942489873111512</v>
       </c>
       <c r="V128">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.791561798058881</v>
+        <v>-11.815196303727637</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.45">
@@ -27999,11 +27999,11 @@
       </c>
       <c r="U129">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15466426194092875</v>
+        <v>6.5014272916625211E-3</v>
       </c>
       <c r="V129">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.5953357380590756</v>
+        <v>-9.7434985727083419</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.45">
@@ -28069,11 +28069,11 @@
       </c>
       <c r="U130">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14923075968530494</v>
+        <v>4.6079618597209417E-2</v>
       </c>
       <c r="V130">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.068369213891164</v>
+        <v>-7.1715203549792594</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.45">
@@ -28139,11 +28139,11 @@
       </c>
       <c r="U131">
         <f t="shared" ref="U131:U194" ca="1" si="7">0.2*RAND()</f>
-        <v>4.8389793578201862E-2</v>
+        <v>1.0894224566621813E-2</v>
       </c>
       <c r="V131">
         <f t="shared" ref="V131:V194" ca="1" si="8">T131+U131</f>
-        <v>-4.4516102064217984</v>
+        <v>-4.4891057754333783</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.45">
@@ -28209,11 +28209,11 @@
       </c>
       <c r="U132">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19363411271604322</v>
+        <v>0.165992563882806</v>
       </c>
       <c r="V132">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.5887659137075001</v>
+        <v>-1.6164074625407374</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.45">
@@ -28279,11 +28279,11 @@
       </c>
       <c r="U133">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16861906433579452</v>
+        <v>2.3610716643629261E-2</v>
       </c>
       <c r="V133">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91861906433578833</v>
+        <v>0.77361071664362302</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.45">
@@ -28349,11 +28349,11 @@
       </c>
       <c r="U134">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18833896763562305</v>
+        <v>0.15454084195586107</v>
       </c>
       <c r="V134">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1129601700943645</v>
+        <v>3.0791620444146024</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.45">
@@ -28419,11 +28419,11 @@
       </c>
       <c r="U135">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1198984408026706E-2</v>
+        <v>2.1382958452145953E-2</v>
       </c>
       <c r="V135">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6444657241446237</v>
+        <v>4.6146496981887433</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.45">
@@ -28489,11 +28489,11 @@
       </c>
       <c r="U136">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4119860947185258E-2</v>
+        <v>7.045702150283735E-2</v>
       </c>
       <c r="V136">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6863410369824008</v>
+        <v>5.7126781975380529</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.45">
@@ -28559,11 +28559,11 @@
       </c>
       <c r="U137">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1476255735755283</v>
+        <v>0.13942309632719976</v>
       </c>
       <c r="V137">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1476255735755281</v>
+        <v>6.1394230963271994</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.45">
@@ -28629,11 +28629,11 @@
       </c>
       <c r="U138">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11299721354725428</v>
+        <v>0.19436441957635769</v>
       </c>
       <c r="V138">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9534786201754404</v>
+        <v>6.0348458262045437</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.45">
@@ -28699,11 +28699,11 @@
       </c>
       <c r="U139">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19953130029451607</v>
+        <v>0.13188555797605578</v>
       </c>
       <c r="V139">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5663038185465537</v>
+        <v>5.4986580762280939</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.45">
@@ -28769,11 +28769,11 @@
       </c>
       <c r="U140">
         <f t="shared" ca="1" si="7"/>
-        <v>9.9586944948299214E-2</v>
+        <v>5.8588105755811817E-2</v>
       </c>
       <c r="V140">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6928536846849056</v>
+        <v>4.6518548454924176</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.45">
@@ -28839,11 +28839,11 @@
       </c>
       <c r="U141">
         <f t="shared" ca="1" si="7"/>
-        <v>0.10660176931155435</v>
+        <v>0.19123359071366738</v>
       </c>
       <c r="V141">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6500684220608246</v>
+        <v>3.7347002434629375</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.45">
@@ -28909,11 +28909,11 @@
       </c>
       <c r="U142">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12007107624942477</v>
+        <v>0.14288660427486827</v>
       </c>
       <c r="V142">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3693409779580881</v>
+        <v>2.3921565059835315</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.45">
@@ -28979,11 +28979,11 @@
       </c>
       <c r="U143">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18486990013459736</v>
+        <v>5.056409275058911E-2</v>
       </c>
       <c r="V143">
         <f t="shared" ca="1" si="8"/>
-        <v>0.93486990013459825</v>
+        <v>0.80056409275059004</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.45">
@@ -29049,11 +29049,11 @@
       </c>
       <c r="U144">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2652304679844245E-2</v>
+        <v>0.12108872219797642</v>
       </c>
       <c r="V144">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86613619040063317</v>
+        <v>-0.78769977288250104</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.45">
@@ -29119,11 +29119,11 @@
       </c>
       <c r="U145">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8158424685937523E-2</v>
+        <v>0.10688790910936095</v>
       </c>
       <c r="V145">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.5785357098112947</v>
+        <v>-2.5698062253878713</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.45">
@@ -29189,11 +29189,11 @@
       </c>
       <c r="U146">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12129391845523568</v>
+        <v>0.15171880375931568</v>
       </c>
       <c r="V146">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3787060815447676</v>
+        <v>-4.3482811962406878</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.45">
@@ -29259,11 +29259,11 @@
       </c>
       <c r="U147">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9804868046093838E-2</v>
+        <v>2.4775267393735857E-2</v>
       </c>
       <c r="V147">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.243500997456672</v>
+        <v>-6.2985305981090303</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.45">
@@ -29329,11 +29329,11 @@
       </c>
       <c r="U148">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1378706347417604</v>
+        <v>6.9068511579382416E-2</v>
       </c>
       <c r="V148">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.953340870177759</v>
+        <v>-8.022142993340136</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.45">
@@ -29399,11 +29399,11 @@
       </c>
       <c r="U149">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6485868568914835E-2</v>
+        <v>9.3801192182146942E-2</v>
       </c>
       <c r="V149">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.6835141314310889</v>
+        <v>-9.6561988078178569</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.45">
@@ -29469,11 +29469,11 @@
       </c>
       <c r="U150">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17601942956840419</v>
+        <v>0.15819933899553054</v>
       </c>
       <c r="V150">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.073250472140261</v>
+        <v>-11.091070562713135</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.45">
@@ -29539,11 +29539,11 @@
       </c>
       <c r="U151">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16832931056473782</v>
+        <v>6.1231167361379325E-2</v>
       </c>
       <c r="V151">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.375137342184535</v>
+        <v>-12.482235485387895</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.45">
@@ -29609,11 +29609,11 @@
       </c>
       <c r="U152">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12429050004392822</v>
+        <v>0.12860708531643794</v>
       </c>
       <c r="V152">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.468976239692678</v>
+        <v>-13.464659654420169</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.45">
@@ -29679,11 +29679,11 @@
       </c>
       <c r="U153">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5741403576161398E-2</v>
+        <v>0.16205890560014333</v>
       </c>
       <c r="V153">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.311031114675876</v>
+        <v>-14.204713612651895</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.45">
@@ -29749,11 +29749,11 @@
       </c>
       <c r="U154">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2998600854306281E-2</v>
+        <v>0.16739114930701615</v>
       </c>
       <c r="V154">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.80748280577388</v>
+        <v>-14.673090257321169</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.45">
@@ -29819,11 +29819,11 @@
       </c>
       <c r="U155">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9656203835614076E-2</v>
+        <v>0.15006844192168789</v>
       </c>
       <c r="V155">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.940343796164386</v>
+        <v>-14.849931558078312</v>
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.45">
@@ -29889,11 +29889,11 @@
       </c>
       <c r="U156">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7651072778156527E-3</v>
+        <v>3.9397711256533713E-2</v>
       </c>
       <c r="V156">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.634456068757398</v>
+        <v>-14.60282346477868</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.45">
@@ -29959,11 +29959,11 @@
       </c>
       <c r="U157">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0924776492104349E-2</v>
+        <v>4.7730595617817076E-2</v>
       </c>
       <c r="V157">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.582341963244506</v>
+        <v>-13.545536144118792</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.45">
@@ -30029,11 +30029,11 @@
       </c>
       <c r="U158">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8673423012390251E-2</v>
+        <v>0.17592427306470781</v>
       </c>
       <c r="V158">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.865947779446362</v>
+        <v>-11.748696929394045</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.45">
@@ -30099,11 +30099,11 @@
       </c>
       <c r="U159">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5932732468719519E-2</v>
+        <v>5.2397306409840199E-3</v>
       </c>
       <c r="V159">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.6640672675312835</v>
+        <v>-9.7447602693590198</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.45">
@@ -30169,11 +30169,11 @@
       </c>
       <c r="U160">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13776523779927602</v>
+        <v>2.2425179694862709E-2</v>
       </c>
       <c r="V160">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0798347357771929</v>
+        <v>-7.1951747938816064</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.45">
@@ -30239,11 +30239,11 @@
       </c>
       <c r="U161">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3174140515910461E-2</v>
+        <v>0.16860410342400842</v>
       </c>
       <c r="V161">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.4868258594840897</v>
+        <v>-4.3313958965759918</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.45">
@@ -30309,11 +30309,11 @@
       </c>
       <c r="U162">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15471960051190944</v>
+        <v>0.19096059430009915</v>
       </c>
       <c r="V162">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.627680425911634</v>
+        <v>-1.5914394321234442</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.45">
@@ -30379,11 +30379,11 @@
       </c>
       <c r="U163">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2373464822434618E-2</v>
+        <v>4.9130480431702539E-2</v>
       </c>
       <c r="V163">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78237346482242842</v>
+        <v>0.79913048043169632</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.45">
@@ -30449,11 +30449,11 @@
       </c>
       <c r="U164">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3914864981531701E-2</v>
+        <v>0.186278805576959</v>
       </c>
       <c r="V164">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9685360674402732</v>
+        <v>3.1109000080357005</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.45">
@@ -30519,11 +30519,11 @@
       </c>
       <c r="U165">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19646078101669875</v>
+        <v>0.10589867111239304</v>
       </c>
       <c r="V165">
         <f t="shared" ca="1" si="8"/>
-        <v>4.7897275207532957</v>
+        <v>4.6991654108489902</v>
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.45">
@@ -30589,11 +30589,11 @@
       </c>
       <c r="U166">
         <f t="shared" ca="1" si="7"/>
-        <v>9.6547028363347942E-2</v>
+        <v>9.874213024286772E-3</v>
       </c>
       <c r="V166">
         <f t="shared" ca="1" si="8"/>
-        <v>5.7387682043985642</v>
+        <v>5.6520953890595029</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.45">
@@ -30659,11 +30659,11 @@
       </c>
       <c r="U167">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4403187028721862E-2</v>
+        <v>0.12013014580425414</v>
       </c>
       <c r="V167">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0444031870287223</v>
+        <v>6.1201301458042545</v>
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.45">
@@ -30729,11 +30729,11 @@
       </c>
       <c r="U168">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11961555840659147</v>
+        <v>0.19694435232054019</v>
       </c>
       <c r="V168">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9600969650347775</v>
+        <v>6.0374257589487259</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.45">
@@ -30799,11 +30799,11 @@
       </c>
       <c r="U169">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8548691843850488E-2</v>
+        <v>0.10565793226466398</v>
       </c>
       <c r="V169">
         <f t="shared" ca="1" si="8"/>
-        <v>5.4553212100958879</v>
+        <v>5.4724304505167014</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.45">
@@ -30869,11 +30869,11 @@
       </c>
       <c r="U170">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0240841065867888E-2</v>
+        <v>0.10006492323355501</v>
       </c>
       <c r="V170">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6735075808024735</v>
+        <v>4.6933316629701611</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.45">
@@ -30939,11 +30939,11 @@
       </c>
       <c r="U171">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12771024809014131</v>
+        <v>0.18228227182692064</v>
       </c>
       <c r="V171">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6711769008394115</v>
+        <v>3.725748924576191</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.45">
@@ -31009,11 +31009,11 @@
       </c>
       <c r="U172">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0867078086098853E-2</v>
+        <v>0.18803220934113257</v>
       </c>
       <c r="V172">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3001369797947619</v>
+        <v>2.4373021110497959</v>
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.45">
@@ -31079,11 +31079,11 @@
       </c>
       <c r="U173">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1590508951447288E-2</v>
+        <v>3.3728521204336115E-2</v>
       </c>
       <c r="V173">
         <f t="shared" ca="1" si="8"/>
-        <v>0.7615905089514482</v>
+        <v>0.783728521204337</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.45">
@@ -31149,11 +31149,11 @@
       </c>
       <c r="U174">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14801298665507673</v>
+        <v>3.8283341872582782E-2</v>
       </c>
       <c r="V174">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.76077550842540065</v>
+        <v>-0.87050515320789468</v>
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.45">
@@ -31219,11 +31219,11 @@
       </c>
       <c r="U175">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0200685477071905E-2</v>
+        <v>6.0259705111809891E-2</v>
       </c>
       <c r="V175">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.6264934490201606</v>
+        <v>-2.6164344293854223</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.45">
@@ -31289,11 +31289,11 @@
       </c>
       <c r="U176">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16805102177141032</v>
+        <v>0.16872782301322653</v>
       </c>
       <c r="V176">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3319489782285929</v>
+        <v>-4.3312721769867775</v>
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.45">
@@ -31359,11 +31359,11 @@
       </c>
       <c r="U177">
         <f t="shared" ca="1" si="7"/>
-        <v>0.10529870405943545</v>
+        <v>0.19400629034539524</v>
       </c>
       <c r="V177">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2180071614433308</v>
+        <v>-6.1292995751573702</v>
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.45">
@@ -31429,11 +31429,11 @@
       </c>
       <c r="U178">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13821953033571416</v>
+        <v>3.9428136663737456E-2</v>
       </c>
       <c r="V178">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.9529919745838047</v>
+        <v>-8.0517833682557818</v>
       </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.45">
@@ -31499,11 +31499,11 @@
       </c>
       <c r="U179">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3806505224803756E-3</v>
+        <v>0.14901390880299484</v>
       </c>
       <c r="V179">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.748619349477524</v>
+        <v>-9.600986091197008</v>
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.45">
@@ -31569,11 +31569,11 @@
       </c>
       <c r="U180">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9024973703290137E-2</v>
+        <v>9.6759646383160994E-2</v>
       </c>
       <c r="V180">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.220244928005375</v>
+        <v>-11.152510255325504</v>
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.45">
@@ -31639,11 +31639,11 @@
       </c>
       <c r="U181">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12441478243696957</v>
+        <v>3.1544497998158415E-2</v>
       </c>
       <c r="V181">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.419051870312304</v>
+        <v>-12.511922154751115</v>
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.45">
@@ -31709,11 +31709,11 @@
       </c>
       <c r="U182">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5650270796930064E-2</v>
+        <v>0.15672508525342901</v>
       </c>
       <c r="V182">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.507616468939675</v>
+        <v>-13.436541654483177</v>
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.45">
@@ -31779,11 +31779,11 @@
       </c>
       <c r="U183">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0349645569534914E-3</v>
+        <v>4.7417903951969237E-2</v>
       </c>
       <c r="V183">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.362737553695084</v>
+        <v>-14.319354614300069</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.45">
@@ -31849,11 +31849,11 @@
       </c>
       <c r="U184">
         <f t="shared" ca="1" si="7"/>
-        <v>5.242687816367169E-2</v>
+        <v>0.18087458392377276</v>
       </c>
       <c r="V184">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.788054528464514</v>
+        <v>-14.659606822704413</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.45">
@@ -31919,11 +31919,11 @@
       </c>
       <c r="U185">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1629741408134556</v>
+        <v>9.2505221997372017E-2</v>
       </c>
       <c r="V185">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.837025859186545</v>
+        <v>-14.907494778002627</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.45">
@@ -31989,11 +31989,11 @@
       </c>
       <c r="U186">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16151738538200033</v>
+        <v>0.12956224026321142</v>
       </c>
       <c r="V186">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.480703790653214</v>
+        <v>-14.512658935772002</v>
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.45">
@@ -32059,11 +32059,11 @@
       </c>
       <c r="U187">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16012661005290593</v>
+        <v>9.2465812020088634E-2</v>
       </c>
       <c r="V187">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.433140129683704</v>
+        <v>-13.50080092771652</v>
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.45">
@@ -32129,11 +32129,11 @@
       </c>
       <c r="U188">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19901262036216116</v>
+        <v>6.9979580445208342E-2</v>
       </c>
       <c r="V188">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.725608582096591</v>
+        <v>-11.854641622013544</v>
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.45">
@@ -32199,11 +32199,11 @@
       </c>
       <c r="U189">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19696379333898384</v>
+        <v>0.13532120099530423</v>
       </c>
       <c r="V189">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5530362066610195</v>
+        <v>-9.6146787990046985</v>
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.45">
@@ -32269,11 +32269,11 @@
       </c>
       <c r="U190">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18937736520243298</v>
+        <v>0.14911156050535376</v>
       </c>
       <c r="V190">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.028222608374036</v>
+        <v>-7.0684884130711154</v>
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.45">
@@ -32339,11 +32339,11 @@
       </c>
       <c r="U191">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12136322395519228</v>
+        <v>0.19426275246712268</v>
       </c>
       <c r="V191">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3786367760448073</v>
+        <v>-4.3057372475328775</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.45">
@@ -32409,11 +32409,11 @@
       </c>
       <c r="U192">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12467371185310268</v>
+        <v>0.13757283555909458</v>
       </c>
       <c r="V192">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6577263145704406</v>
+        <v>-1.6448271908644487</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.45">
@@ -32479,11 +32479,11 @@
       </c>
       <c r="U193">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6881875195900737E-2</v>
+        <v>0.14943128701815173</v>
       </c>
       <c r="V193">
         <f t="shared" ca="1" si="8"/>
-        <v>0.83688187519589452</v>
+        <v>0.89943128701814556</v>
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.45">
@@ -32549,11 +32549,11 @@
       </c>
       <c r="U194">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18814467926644662</v>
+        <v>2.8724541893401567E-2</v>
       </c>
       <c r="V194">
         <f t="shared" ca="1" si="8"/>
-        <v>3.112765881725188</v>
+        <v>2.9533457443521431</v>
       </c>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.45">
@@ -32619,11 +32619,11 @@
       </c>
       <c r="U195">
         <f t="shared" ref="U195:U250" ca="1" si="9">0.2*RAND()</f>
-        <v>5.8634095665699749E-2</v>
+        <v>5.5365526016134987E-3</v>
       </c>
       <c r="V195">
         <f t="shared" ref="V195:V248" ca="1" si="10">T195+U195</f>
-        <v>4.651900835402297</v>
+        <v>4.5988032923382107</v>
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.45">
@@ -32689,11 +32689,11 @@
       </c>
       <c r="U196">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1593657277063385</v>
+        <v>0.11470643987522017</v>
       </c>
       <c r="V196">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8015869037415548</v>
+        <v>5.7569276159104357</v>
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.45">
@@ -32759,11 +32759,11 @@
       </c>
       <c r="U197">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12308740832673526</v>
+        <v>8.8176605071924707E-2</v>
       </c>
       <c r="V197">
         <f t="shared" ca="1" si="10"/>
-        <v>6.123087408326735</v>
+        <v>6.0881766050719248</v>
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.45">
@@ -32829,11 +32829,11 @@
       </c>
       <c r="U198">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1351179361629089</v>
+        <v>0.1415383209145937</v>
       </c>
       <c r="V198">
         <f t="shared" ca="1" si="10"/>
-        <v>5.9755993427910949</v>
+        <v>5.9820197275427791</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.45">
@@ -32899,11 +32899,11 @@
       </c>
       <c r="U199">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6488445476636802E-3</v>
+        <v>0.14487415670992501</v>
       </c>
       <c r="V199">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3744213627997013</v>
+        <v>5.5116466749619626</v>
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.45">
@@ -32969,11 +32969,11 @@
       </c>
       <c r="U200">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15886908089613616</v>
+        <v>7.8736314144886868E-2</v>
       </c>
       <c r="V200">
         <f t="shared" ca="1" si="10"/>
-        <v>4.7521358206327422</v>
+        <v>4.6720030538814932</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.45">
@@ -33039,11 +33039,11 @@
       </c>
       <c r="U201">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12165779017988612</v>
+        <v>0.10859216895180807</v>
       </c>
       <c r="V201">
         <f t="shared" ca="1" si="10"/>
-        <v>3.6651244429291565</v>
+        <v>3.6520588217010781</v>
       </c>
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.45">
@@ -33109,11 +33109,11 @@
       </c>
       <c r="U202">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14512969093946512</v>
+        <v>1.5002240673417044E-2</v>
       </c>
       <c r="V202">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3943995926481283</v>
+        <v>2.2642721423820804</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.45">
@@ -33179,11 +33179,11 @@
       </c>
       <c r="U203">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1939950997559273</v>
+        <v>0.18226043769667066</v>
       </c>
       <c r="V203">
         <f t="shared" ca="1" si="10"/>
-        <v>0.94399509975592821</v>
+        <v>0.93226043769667155</v>
       </c>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.45">
@@ -33249,11 +33249,11 @@
       </c>
       <c r="U204">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1104644099355805E-2</v>
+        <v>2.3955968428273723E-2</v>
       </c>
       <c r="V204">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.82768385098112163</v>
+        <v>-0.88483252665220369</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.45">
@@ -33319,11 +33319,11 @@
       </c>
       <c r="U205">
         <f t="shared" ca="1" si="9"/>
-        <v>3.5581626897283884E-2</v>
+        <v>0.11954783876325424</v>
       </c>
       <c r="V205">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.6411125075999484</v>
+        <v>-2.5571462957339781</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.45">
@@ -33389,11 +33389,11 @@
       </c>
       <c r="U206">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8729249294189234E-2</v>
+        <v>0.15744085133615396</v>
       </c>
       <c r="V206">
         <f t="shared" ca="1" si="10"/>
-        <v>-4.4012707507058142</v>
+        <v>-4.3425591486638497</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.45">
@@ -33459,11 +33459,11 @@
       </c>
       <c r="U207">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3882223682362625E-3</v>
+        <v>3.4037875399054007E-2</v>
       </c>
       <c r="V207">
         <f t="shared" ca="1" si="10"/>
-        <v>-6.3179176431345292</v>
+        <v>-6.2892679901037116</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.45">
@@ -33529,11 +33529,11 @@
       </c>
       <c r="U208">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14521349796475633</v>
+        <v>0.10818083847295512</v>
       </c>
       <c r="V208">
         <f t="shared" ca="1" si="10"/>
-        <v>-7.9459980069547624</v>
+        <v>-7.983030666446564</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.45">
@@ -33599,11 +33599,11 @@
       </c>
       <c r="U209">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3934629648098715E-2</v>
+        <v>3.799105240391665E-3</v>
       </c>
       <c r="V209">
         <f t="shared" ca="1" si="10"/>
-        <v>-9.6760653703519051</v>
+        <v>-9.7462008947596122</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.45">
@@ -33669,11 +33669,11 @@
       </c>
       <c r="U210">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6266749740736356E-2</v>
+        <v>1.3524958630780471E-2</v>
       </c>
       <c r="V210">
         <f t="shared" ca="1" si="10"/>
-        <v>-11.173003151967929</v>
+        <v>-11.235744943077885</v>
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.45">
@@ -33739,11 +33739,11 @@
       </c>
       <c r="U211">
         <f t="shared" ca="1" si="9"/>
-        <v>5.615582423000421E-4</v>
+        <v>0.14145129320685254</v>
       </c>
       <c r="V211">
         <f t="shared" ca="1" si="10"/>
-        <v>-12.542905094506974</v>
+        <v>-12.402015359542421</v>
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.45">
@@ -33809,11 +33809,11 @@
       </c>
       <c r="U212">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15129102009784812</v>
+        <v>2.0273905259309367E-2</v>
       </c>
       <c r="V212">
         <f t="shared" ca="1" si="10"/>
-        <v>-13.441975719638759</v>
+        <v>-13.572992834477297</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.45">
@@ -33879,11 +33879,11 @@
       </c>
       <c r="U213">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1917488618138071</v>
+        <v>5.6577254202329424E-2</v>
       </c>
       <c r="V213">
         <f t="shared" ca="1" si="10"/>
-        <v>-14.175023656438231</v>
+        <v>-14.310195264049709</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.45">
@@ -33949,11 +33949,11 @@
       </c>
       <c r="U214">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19994427903954601</v>
+        <v>0.13101730580597881</v>
       </c>
       <c r="V214">
         <f t="shared" ca="1" si="10"/>
-        <v>-14.64053712758864</v>
+        <v>-14.709464100822206</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.45">
@@ -34019,11 +34019,11 @@
       </c>
       <c r="U215">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18643156292406696</v>
+        <v>6.690370255702241E-2</v>
       </c>
       <c r="V215">
         <f t="shared" ca="1" si="10"/>
-        <v>-14.813568437075933</v>
+        <v>-14.933096297442978</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.45">
@@ -34089,11 +34089,11 @@
       </c>
       <c r="U216">
         <f t="shared" ca="1" si="9"/>
-        <v>0.16543794227847949</v>
+        <v>0.17262967584800573</v>
       </c>
       <c r="V216">
         <f t="shared" ca="1" si="10"/>
-        <v>-14.476783233756734</v>
+        <v>-14.469591500187208</v>
       </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.45">
@@ -34159,11 +34159,11 @@
       </c>
       <c r="U217">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13312175109671992</v>
+        <v>0.14776317095465097</v>
       </c>
       <c r="V217">
         <f t="shared" ca="1" si="10"/>
-        <v>-13.46014498863989</v>
+        <v>-13.445503568781959</v>
       </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.45">
@@ -34229,11 +34229,11 @@
       </c>
       <c r="U218">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4516816168240301E-2</v>
+        <v>0.15722866593385543</v>
       </c>
       <c r="V218">
         <f t="shared" ca="1" si="10"/>
-        <v>-11.860104386290512</v>
+        <v>-11.767392536524897</v>
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.45">
@@ -34299,11 +34299,11 @@
       </c>
       <c r="U219">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5122926535092252E-2</v>
+        <v>5.7083050753841617E-2</v>
       </c>
       <c r="V219">
         <f t="shared" ca="1" si="10"/>
-        <v>-9.7248770734649117</v>
+        <v>-9.6929169492461611</v>
       </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.45">
@@ -34369,11 +34369,11 @@
       </c>
       <c r="U220">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2017944825124622E-2</v>
+        <v>5.3159550738316623E-2</v>
       </c>
       <c r="V220">
         <f t="shared" ca="1" si="10"/>
-        <v>-7.1455820287513445</v>
+        <v>-7.1644404228381529</v>
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.45">
@@ -34439,11 +34439,11 @@
       </c>
       <c r="U221">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5648857817138801E-2</v>
+        <v>2.0103005096899994E-3</v>
       </c>
       <c r="V221">
         <f t="shared" ca="1" si="10"/>
-        <v>-4.4243511421828616</v>
+        <v>-4.4979896994903097</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.45">
@@ -34509,11 +34509,11 @@
       </c>
       <c r="U222">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17300484691719165</v>
+        <v>0.11712676387243207</v>
       </c>
       <c r="V222">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.6093951795063517</v>
+        <v>-1.6652732625511113</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.45">
@@ -34579,11 +34579,11 @@
       </c>
       <c r="U223">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18342184446762971</v>
+        <v>4.8435969974813149E-3</v>
       </c>
       <c r="V223">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93342184446762344</v>
+        <v>0.75484359699747505</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.45">
@@ -34649,11 +34649,11 @@
       </c>
       <c r="U224">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5523489001298332E-2</v>
+        <v>2.220634594635278E-2</v>
       </c>
       <c r="V224">
         <f t="shared" ca="1" si="10"/>
-        <v>2.9801446914600396</v>
+        <v>2.9468275484050941</v>
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.45">
@@ -34719,11 +34719,11 @@
       </c>
       <c r="U225">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3970465555449335E-2</v>
+        <v>6.1057874321557515E-2</v>
       </c>
       <c r="V225">
         <f t="shared" ca="1" si="10"/>
-        <v>4.6472372052920461</v>
+        <v>4.6543246140581545</v>
       </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.45">
@@ -34789,11 +34789,11 @@
       </c>
       <c r="U226">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7789324345062569E-2</v>
+        <v>0.19050963679131416</v>
       </c>
       <c r="V226">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7200105003802788</v>
+        <v>5.8327308128265303</v>
       </c>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.45">
@@ -34859,11 +34859,11 @@
       </c>
       <c r="U227">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0648201136733655E-2</v>
+        <v>0.12736320555357991</v>
       </c>
       <c r="V227">
         <f t="shared" ca="1" si="10"/>
-        <v>6.080648201136734</v>
+        <v>6.1273632055535803</v>
       </c>
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.45">
@@ -34926,11 +34926,11 @@
       </c>
       <c r="U228">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0178109889011077E-2</v>
+        <v>0.18977598826450104</v>
       </c>
       <c r="V228">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0178109889011077E-2</v>
+        <v>0.18977598826450104</v>
       </c>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.45">
@@ -34993,11 +34993,11 @@
       </c>
       <c r="U229">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18938365806552462</v>
+        <v>0.11492853327128578</v>
       </c>
       <c r="V229">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18938365806552462</v>
+        <v>0.11492853327128578</v>
       </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.45">
@@ -35060,11 +35060,11 @@
       </c>
       <c r="U230">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18270114188809686</v>
+        <v>0.18997511468589282</v>
       </c>
       <c r="V230">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18270114188809686</v>
+        <v>0.18997511468589282</v>
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.45">
@@ -35127,11 +35127,11 @@
       </c>
       <c r="U231">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18987614934641106</v>
+        <v>0.15113999097283118</v>
       </c>
       <c r="V231">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18987614934641106</v>
+        <v>0.15113999097283118</v>
       </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.45">
@@ -35194,11 +35194,11 @@
       </c>
       <c r="U232">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9832792718999026E-2</v>
+        <v>0.1564295735988098</v>
       </c>
       <c r="V232">
         <f t="shared" ca="1" si="10"/>
-        <v>3.9832792718999026E-2</v>
+        <v>0.1564295735988098</v>
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.45">
@@ -35261,11 +35261,11 @@
       </c>
       <c r="U233">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6871319784471356E-2</v>
+        <v>6.1802614194921127E-2</v>
       </c>
       <c r="V233">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6871319784471356E-2</v>
+        <v>6.1802614194921127E-2</v>
       </c>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.45">
@@ -35328,11 +35328,11 @@
       </c>
       <c r="U234">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12393021603933987</v>
+        <v>0.12522326180233681</v>
       </c>
       <c r="V234">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12393021603933987</v>
+        <v>0.12522326180233681</v>
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.45">
@@ -35395,11 +35395,11 @@
       </c>
       <c r="U235">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1021407136140483E-2</v>
+        <v>2.138473122910365E-2</v>
       </c>
       <c r="V235">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1021407136140483E-2</v>
+        <v>2.138473122910365E-2</v>
       </c>
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.45">
@@ -35462,11 +35462,11 @@
       </c>
       <c r="U236">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19964112158418146</v>
+        <v>0.13645229799710909</v>
       </c>
       <c r="V236">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19964112158418146</v>
+        <v>0.13645229799710909</v>
       </c>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.45">
@@ -35529,11 +35529,11 @@
       </c>
       <c r="U237">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14444543131322823</v>
+        <v>7.1568709087363E-2</v>
       </c>
       <c r="V237">
         <f t="shared" ca="1" si="10"/>
-        <v>0.14444543131322823</v>
+        <v>7.1568709087363E-2</v>
       </c>
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.45">
@@ -35596,11 +35596,11 @@
       </c>
       <c r="U238">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3036582803646889E-2</v>
+        <v>0.18104202615097642</v>
       </c>
       <c r="V238">
         <f t="shared" ca="1" si="10"/>
-        <v>4.3036582803646889E-2</v>
+        <v>0.18104202615097642</v>
       </c>
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.45">
@@ -35663,11 +35663,11 @@
       </c>
       <c r="U239">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8238869464662149E-2</v>
+        <v>7.3683319586701601E-2</v>
       </c>
       <c r="V239">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8238869464662149E-2</v>
+        <v>7.3683319586701601E-2</v>
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.45">
@@ -35730,11 +35730,11 @@
       </c>
       <c r="U240">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19199542784957974</v>
+        <v>0.1473246117991891</v>
       </c>
       <c r="V240">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19199542784957974</v>
+        <v>0.1473246117991891</v>
       </c>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.45">
@@ -35797,11 +35797,11 @@
       </c>
       <c r="U241">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17172850997576602</v>
+        <v>2.795632674330624E-2</v>
       </c>
       <c r="V241">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17172850997576602</v>
+        <v>2.795632674330624E-2</v>
       </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.45">
@@ -35864,11 +35864,11 @@
       </c>
       <c r="U242">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3315706220509011E-2</v>
+        <v>0.16725286820790225</v>
       </c>
       <c r="V242">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3315706220509011E-2</v>
+        <v>0.16725286820790225</v>
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.45">
@@ -35931,11 +35931,11 @@
       </c>
       <c r="U243">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13914431817895997</v>
+        <v>0.18439063490739116</v>
       </c>
       <c r="V243">
         <f t="shared" ca="1" si="10"/>
-        <v>0.13914431817895997</v>
+        <v>0.18439063490739116</v>
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.45">
@@ -35998,11 +35998,11 @@
       </c>
       <c r="U244">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0173904607054774E-2</v>
+        <v>0.12036885009876136</v>
       </c>
       <c r="V244">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0173904607054774E-2</v>
+        <v>0.12036885009876136</v>
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.45">
@@ -36065,11 +36065,11 @@
       </c>
       <c r="U245">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4927507728757869E-2</v>
+        <v>0.11962579556394869</v>
       </c>
       <c r="V245">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4927507728757869E-2</v>
+        <v>0.11962579556394869</v>
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.45">
@@ -36132,11 +36132,11 @@
       </c>
       <c r="U246">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7773743022165443E-2</v>
+        <v>0.1508652094512167</v>
       </c>
       <c r="V246">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7773743022165443E-2</v>
+        <v>0.1508652094512167</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.45">
@@ -36199,11 +36199,11 @@
       </c>
       <c r="U247">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3472269212740763E-3</v>
+        <v>3.9201529390360618E-2</v>
       </c>
       <c r="V247">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3472269212740763E-3</v>
+        <v>3.9201529390360618E-2</v>
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.45">
@@ -36266,11 +36266,11 @@
       </c>
       <c r="U248">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13476196702427232</v>
+        <v>0.17560865785511814</v>
       </c>
       <c r="V248">
         <f t="shared" ca="1" si="10"/>
-        <v>0.13476196702427232</v>
+        <v>0.17560865785511814</v>
       </c>
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.45">
@@ -36333,7 +36333,7 @@
       </c>
       <c r="U249">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8819234614909888E-2</v>
+        <v>0.14513978555107596</v>
       </c>
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.45">
@@ -36396,7 +36396,7 @@
       </c>
       <c r="U250">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19233446747441457</v>
+        <v>8.6900049154504111E-2</v>
       </c>
     </row>
   </sheetData>
